--- a/data/deposits_binance_post_treatments_20210403.xlsx
+++ b/data/deposits_binance_post_treatments_20210403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXIS\PycharmProjects\Crypto_portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26F9D6-78F3-4F0B-898E-309FFACC42B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50690D8A-611E-471A-9AAB-0CDC44A5AF8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,28 +175,28 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +503,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,25 +516,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1">
-        <v>4164</v>
-      </c>
-      <c r="I1" s="1"/>
+      <c r="H1" s="5">
+        <v>4120</v>
+      </c>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -612,11 +612,11 @@
         <v>12</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <f>SUM(C2:C6) &amp; " €"</f>
         <v>3141 €</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <f>SUM(D2:D6) &amp; " $"</f>
         <v>3700,098 $</v>
       </c>
@@ -630,25 +630,25 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="8" t="str">
         <f>$H$1*0.84-SUM(C2:C6) &amp; " €"</f>
-        <v>356,76 €</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+        <v>319,8 €</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="8" t="str">
         <f>$H$1-SUM(D2:D6) &amp; " $"</f>
-        <v>463,902 $</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+        <v>419,902 $</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
